--- a/xlsx/中央谷地_intext.xlsx
+++ b/xlsx/中央谷地_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>中央谷地</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>政策_政策_加州_中央谷地</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E6%B2%B3</t>
   </si>
   <si>
-    <t>薩克拉門托河</t>
+    <t>萨克拉门托河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%8E%E9%87%91%E6%B2%B3</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B1%B1%E8%84%88_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>內華達山脈 (美國)</t>
+    <t>内华达山脉 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%96%AF%E5%BC%80%E5%B1%B1%E8%84%89</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海型氣候</t>
+    <t>地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3</t>
   </si>
   <si>
-    <t>舊金山灣</t>
+    <t>旧金山湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E6%B5%B7%E5%B3%A1_(%E7%BE%8E%E5%9B%BD)</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%86%E7%AD%8D</t>
   </si>
   <si>
-    <t>蘆筍</t>
+    <t>芦笋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E8%96%8A</t>
   </si>
   <si>
-    <t>朝鮮薊</t>
+    <t>朝鲜蓟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%8A%B1%E6%9E%9C</t>
   </si>
   <si>
-    <t>無花果</t>
+    <t>无花果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E8%9C%9C%E6%A1%83</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
   </si>
   <si>
-    <t>橄欖</t>
+    <t>橄榄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%BF</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%A4%E7%89%B9%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布尤特縣 (加利福尼亞州)</t>
+    <t>布尤特县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%8D%A2%E8%90%A8%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩克拉門托縣 (加利福尼亞州)</t>
+    <t>萨克拉门托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E5%A4%9A%E6%8B%89%E5%A4%9A%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E6%B4%9B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>優洛縣 (加利福尼亞州)</t>
+    <t>优洛县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E7%91%9F%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3_(%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖華金縣 (加州)</t>
+    <t>圣华金县 (加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E5%B0%BC%E6%96%AF%E5%8A%B3%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E5%A1%9E%E5%BE%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>默塞德縣 (加利福尼亞州)</t>
+    <t>默塞德县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>馬德拉縣 (加利福尼亞州)</t>
+    <t>马德拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%9B%B7%E6%96%AF%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費雷斯諾縣 (加利福尼亞州)</t>
+    <t>费雷斯诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6</t>
   </si>
   <si>
-    <t>沙加緬度</t>
+    <t>沙加缅度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AF%BA</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/5%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>5號州際公路</t>
+    <t>5号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/99%E5%8F%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E5%B7%9E%E9%81%93</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/80%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>80號州際公路</t>
+    <t>80号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:California</t>
@@ -365,13 +365,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%8A%A0%E7%B7%AC%E5%BA%A6_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沙加緬度 (加利福尼亞州)</t>
+    <t>沙加缅度 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E%E9%80%89%E4%B8%BE</t>
@@ -395,19 +392,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>加利福尼亞州歷史</t>
+    <t>加利福尼亚州历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>加利福尼亞州行政區劃</t>
+    <t>加利福尼亚州行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿拉米達縣</t>
+    <t>阿拉米达县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B4%BE%E6%81%A9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%89%B9%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布特郡 (加利福尼亞州)</t>
+    <t>布特郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E9%9F%A6%E6%8B%89%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%89%B9%E6%8B%89%E7%A7%91%E6%96%AF%E5%A1%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>康特拉科斯塔縣 (加利福尼亞州)</t>
+    <t>康特拉科斯塔县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E8%AF%BA%E7%89%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洪堡縣 (加利福尼亞州)</t>
+    <t>洪堡县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%9A%AE%E9%87%8C%E5%B0%94%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%85%8B%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊克縣 (加利福尼亞州)</t>
+    <t>莱克县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A3%AE%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E9%9B%B7%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蒙特雷縣 (加利福尼亞州)</t>
+    <t>蒙特雷县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95%E5%8E%BF</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>內華達縣 (加利福尼亞州)</t>
+    <t>内华达县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>橙縣 (加利福尼亞州)</t>
+    <t>橙县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%8D%A2%E9%BB%98%E6%96%AF%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -545,25 +542,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%BF%B1%E7%B8%A3</t>
   </si>
   <si>
-    <t>河濱縣</t>
+    <t>河滨县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E5%B0%BC%E6%89%98%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝尼托縣 (加利福尼亞州)</t>
+    <t>圣贝尼托县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖貝納迪諾縣 (加利福尼亞州)</t>
+    <t>圣贝纳迪诺县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥郡 (加利福尼亞州)</t>
+    <t>圣地牙哥郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1</t>
@@ -575,31 +572,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E7%B8%A3</t>
   </si>
   <si>
-    <t>聖華金縣</t>
+    <t>圣华金县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E6%B3%A2%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯波縣 (加利福尼亞州)</t>
+    <t>圣路易斯-奥比斯波县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%81%E9%83%A1_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬刁郡 (加利福尼亞州)</t>
+    <t>圣马刁郡 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖巴巴拉縣 (加利福尼亞州)</t>
+    <t>圣巴巴拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E6%8B%89%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖塔克拉拉縣 (加利福尼亞州)</t>
+    <t>圣塔克拉拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A1%94%E5%85%8B%E9%B2%81%E5%85%B9%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E6%8B%89%E7%B8%A3_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝拉縣 (加利福尼亞州)</t>
+    <t>谢拉县 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%96%AF%E5%9F%BA%E5%B0%A4%E5%8E%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -671,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BE%B7%E6%96%AF%E6%89%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>莫德斯托 (加利福尼亞州)</t>
+    <t>莫德斯托 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B8%95_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%88%A9%E8%92%99_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>費利蒙 (加利福尼亞州)</t>
+    <t>费利蒙 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B2%83%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B9%E6%9B%BE%E5%BE%B7%E5%A5%A7%E5%85%8B%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>紹曾德奧克斯 (加利福尼亞州)</t>
+    <t>绍曾德奥克斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%BC%97%E8%B5%9B%E5%BE%B7_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安大略 (加利福尼亞州)</t>
+    <t>安大略 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -749,19 +746,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8F%AF%E6%96%AF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖馬可斯 (加利福尼亞州)</t>
+    <t>圣马可斯 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%A8%E5%9F%8E</t>
   </si>
   <si>
-    <t>紅木城</t>
+    <t>红木城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E5%B0%BC%E9%9F%A6%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -779,13 +776,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%82%A3%E7%BF%B0_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安那翰 (加利福尼亞州)</t>
+    <t>安那翰 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%96%87_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>歐文 (加利福尼亞州)</t>
+    <t>欧文 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%8E%9B%E4%B8%BD%E4%BA%9A_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖羅莎 (加利福尼亞州)</t>
+    <t>圣罗莎 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E5%A1%94%E5%8D%A2%E9%A9%AC</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A1%9E%E5%88%A9%E4%BA%9E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>維塞利亞 (加利福尼亞州)</t>
+    <t>维塞利亚 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E7%BB%B4%E5%B0%94_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B7%B4%E5%9F%8E_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尤巴城 (加利福尼亞州)</t>
+    <t>尤巴城 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%8F%E5%B0%94</t>
@@ -899,13 +896,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%93%88%E9%9F%8B%E6%B2%99%E6%BC%A0</t>
   </si>
   <si>
-    <t>莫哈韋沙漠</t>
+    <t>莫哈韦沙漠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>北加利福尼亞州</t>
+    <t>北加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A%E8%B0%B7</t>
@@ -917,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%8D%8A%E5%B2%9B</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7</t>
   </si>
   <si>
-    <t>聖華金谷</t>
+    <t>圣华金谷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%85%E8%B0%B7</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>南加利福尼亞</t>
+    <t>南加利福尼亚</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2968,7 @@
         <v>115</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
         <v>44</v>
@@ -2997,10 +2994,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>56</v>
@@ -3026,10 +3023,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3055,10 +3052,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>5</v>
@@ -3084,10 +3081,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3113,10 +3110,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3142,10 +3139,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>37</v>
@@ -3171,10 +3168,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3200,10 +3197,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3229,10 +3226,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3258,10 +3255,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3287,10 +3284,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3316,10 +3313,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3345,10 +3342,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3374,10 +3371,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3403,10 +3400,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3432,10 +3429,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3461,10 +3458,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3490,10 +3487,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3519,10 +3516,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3577,10 +3574,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3606,10 +3603,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3635,10 +3632,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3664,10 +3661,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3693,10 +3690,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3722,10 +3719,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3751,10 +3748,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3780,10 +3777,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3809,10 +3806,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3838,10 +3835,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3867,10 +3864,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3896,10 +3893,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3925,10 +3922,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3954,10 +3951,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3983,10 +3980,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4012,10 +4009,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4041,10 +4038,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4070,10 +4067,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4099,10 +4096,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4128,10 +4125,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>4</v>
@@ -4157,10 +4154,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4186,10 +4183,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4215,10 +4212,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4244,10 +4241,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4273,10 +4270,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4302,10 +4299,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4331,10 +4328,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4360,10 +4357,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4418,10 +4415,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4447,10 +4444,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4476,10 +4473,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4505,10 +4502,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4534,10 +4531,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4563,10 +4560,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4592,10 +4589,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4621,10 +4618,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4650,10 +4647,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4679,10 +4676,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4708,10 +4705,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4737,10 +4734,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4766,10 +4763,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4795,10 +4792,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4824,10 +4821,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4853,10 +4850,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4882,10 +4879,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4911,10 +4908,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>182</v>
+      </c>
+      <c r="F125" t="s">
         <v>183</v>
-      </c>
-      <c r="F125" t="s">
-        <v>184</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4940,10 +4937,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4969,10 +4966,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4998,10 +4995,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5027,10 +5024,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5056,10 +5053,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5085,10 +5082,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5114,10 +5111,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5143,10 +5140,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5172,10 +5169,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5201,10 +5198,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5230,10 +5227,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5259,10 +5256,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5288,10 +5285,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5317,10 +5314,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5346,10 +5343,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5375,10 +5372,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5404,10 +5401,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5433,10 +5430,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5462,10 +5459,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5491,10 +5488,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5520,10 +5517,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5549,10 +5546,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5578,10 +5575,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5607,10 +5604,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5636,10 +5633,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5665,10 +5662,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5694,10 +5691,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5723,10 +5720,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5752,10 +5749,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5781,10 +5778,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5810,10 +5807,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5839,10 +5836,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5868,10 +5865,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
